--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="dynamic_field" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dynamic_field!$F$1:$F$112</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -48,6 +51,24 @@
   </si>
   <si>
     <t>is_active</t>
+  </si>
+  <si>
+    <t>cr_by</t>
+  </si>
+  <si>
+    <t>cr_dtimes</t>
+  </si>
+  <si>
+    <t>upd_by</t>
+  </si>
+  <si>
+    <t>upd_dtimes</t>
+  </si>
+  <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>del_dtimes</t>
   </si>
   <si>
     <t>bloodType</t>
@@ -69,6 +90,12 @@
     <t>eng</t>
   </si>
   <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 	{
 		"code": "102",
@@ -466,16 +493,83 @@
     <t>{"code":"SH","value":"phone"}</t>
   </si>
   <si>
-    <t>spa</t>
-  </si>
-  <si>
-    <t>{"value":"española","code":"spa"}</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
     <t>{"value":"française","code":"fra"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ {
+  "code": "MLE",
+  "value": "Mâle"
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ {
+  "code": "FLE",
+  "value": "Femelle"
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ {
+  "code": "OTH",
+  "value": "Autres"
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ {
+  "code": "FR",
+  "value": "Étranger"
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ {
+  "code": "NFR",
+  "value": "Non-étranger"
+ }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "113",
+		"value": "Je ne sais pas"
+	}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "114",
+		"value": "Sans objet"
+	}</t>
+  </si>
+  <si>
+    <t>b3053acf-13a7-4fe1-b89b-a05c95d9e375</t>
+  </si>
+  <si>
+    <t>{"code":"Test","value":"dummy"}</t>
+  </si>
+  <si>
+    <t>globaladmin</t>
+  </si>
+  <si>
+    <t>b2117f39-572c-4717-919e-ed3103c79819</t>
+  </si>
+  <si>
+    <t>bloodTypeu</t>
+  </si>
+  <si>
+    <t>bloodType1</t>
+  </si>
+  <si>
+    <t>{"code":"678890","value":"bloodType"}</t>
+  </si>
+  <si>
+    <t>es</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -501,27 +595,6 @@
   <si>
     <t xml:space="preserve">
  {
-  "code": "MLE",
-  "value": "Mâle"
- }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- {
-  "code": "FLE",
-  "value": "Femelle"
- }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- {
-  "code": "OTH",
-  "value": "Autres"
- }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- {
   "code": "FR",
   "value": "Extranjero"
  }</t>
@@ -535,478 +608,39 @@
   </si>
   <si>
     <t xml:space="preserve">
- {
-  "code": "FR",
-  "value": "Étranger"
- }</t>
+	{
+		"code": "113",
+		"value": "no lo sé"
+	}</t>
   </si>
   <si>
     <t xml:space="preserve">
- {
-  "code": "NFR",
-  "value": "Non-étranger"
- }</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"code": "101",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"value": "A",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"code": "113",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"value": "no lo sé"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"code": "114",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"value": "No aplicable"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"code": "113",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"value": "Je ne sais pas"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"code": "114",
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">		</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">"value": "Sans objet"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">	</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>}</t>
-    </r>
+	{
+		"code": "114",
+		"value": "No aplicable"
+	}</t>
+  </si>
+  <si>
+    <t>{"value":"española","code":"es"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1151,12 +785,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1479,13 +1107,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1494,122 +1125,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1618,14 +1246,6 @@
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2160,22 +1780,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="38.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="15.7272727272727" customWidth="1"/>
-    <col min="3" max="3" width="23.4545454545455" customWidth="1"/>
-    <col min="4" max="4" width="9.90909090909091" customWidth="1"/>
-    <col min="5" max="5" width="32.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="29.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2197,2690 +1813,4574 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="101.5" spans="1:9">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="72.5" spans="1:13">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="101.5" spans="1:9">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="72.5" spans="1:13">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" ht="101.5" spans="1:9">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="72.5" spans="1:13">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" ht="101.5" spans="1:9">
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="72.5" spans="1:13">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" ht="101.5" spans="1:9">
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="72.5" spans="1:13">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" ht="101.5" spans="1:9">
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="72.5" spans="1:13">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" ht="101.5" spans="1:9">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="72.5" spans="1:13">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" ht="101.5" spans="1:9">
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="72.5" spans="1:13">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" ht="101.5" spans="1:9">
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="72.5" spans="1:13">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="H10"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" ht="101.5" spans="1:9">
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="72.5" spans="1:13">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" ht="101.5" spans="1:9">
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" ht="72.5" spans="1:13">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" ht="101.5" spans="1:9">
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="72.5" spans="1:13">
       <c r="A13">
         <v>10012</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="H13"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" ht="116" spans="1:9">
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" ht="72.5" spans="1:13">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="H14"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" ht="130.5" spans="1:9">
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="72.5" spans="1:13">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" ht="101.5" spans="1:9">
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" ht="72.5" spans="1:13">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="H16"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" ht="101.5" spans="1:9">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" ht="72.5" spans="1:13">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="H17"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" ht="116" spans="1:9">
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="72.5" spans="1:13">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="H18"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" ht="101.5" spans="1:9">
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="72.5" spans="1:13">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" ht="130.5" spans="1:9">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" ht="72.5" spans="1:13">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" ht="101.5" spans="1:9">
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" ht="72.5" spans="1:13">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" ht="101.5" spans="1:9">
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="72.5" spans="1:13">
       <c r="A22">
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="H22"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" ht="130.5" spans="1:9">
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="72.5" spans="1:13">
       <c r="A23">
         <v>10022</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="H23"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" ht="130.5" spans="1:9">
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" ht="72.5" spans="1:13">
       <c r="A24">
         <v>10023</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
-      <c r="H24"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" ht="101.5" spans="1:9">
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" ht="72.5" spans="1:13">
       <c r="A25">
         <v>10024</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="H25"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" ht="145" spans="1:9">
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" ht="87" spans="1:13">
       <c r="A26">
         <v>10025</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H26"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" ht="130.5" spans="1:9">
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" ht="87" spans="1:13">
       <c r="A27">
         <v>10026</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H27"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" ht="101.5" spans="1:9">
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" ht="72.5" spans="1:13">
       <c r="A28">
         <v>10027</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" ht="101.5" spans="1:9">
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" ht="72.5" spans="1:13">
       <c r="A29">
         <v>10028</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H29"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" ht="101.5" spans="1:9">
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>19</v>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" ht="72.5" spans="1:13">
       <c r="A30">
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="H30"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" ht="116" spans="1:9">
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="72.5" spans="1:13">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="H31"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" ht="116" spans="1:9">
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="72.5" spans="1:13">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="H32"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>11310</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="H33"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>11313</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
-      <c r="H34"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" ht="101.5" spans="1:9">
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" ht="72.5" spans="1:13">
       <c r="A35">
         <v>11111</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
-      <c r="H35"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" ht="101.5" spans="1:9">
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" ht="72.5" spans="1:13">
       <c r="A36">
         <v>11002</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
-      <c r="H36"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" ht="101.5" spans="1:9">
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" ht="72.5" spans="1:13">
       <c r="A37">
         <v>11003</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
-      <c r="H37"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" ht="101.5" spans="1:9">
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" ht="72.5" spans="1:13">
       <c r="A38">
         <v>11004</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
-      <c r="H38"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" ht="101.5" spans="1:9">
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" ht="72.5" spans="1:13">
       <c r="A39">
         <v>11005</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="H39"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" ht="101.5" spans="1:9">
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>19</v>
+      </c>
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" ht="72.5" spans="1:13">
       <c r="A40">
         <v>11006</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="H40"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" ht="101.5" spans="1:9">
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="72.5" spans="1:13">
       <c r="A41">
         <v>11007</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="H41"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" ht="101.5" spans="1:9">
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="72.5" spans="1:13">
       <c r="A42">
         <v>11008</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
-      <c r="H42"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" ht="101.5" spans="1:9">
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="72.5" spans="1:13">
       <c r="A43">
         <v>11009</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="H43"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" ht="101.5" spans="1:9">
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" ht="72.5" spans="1:13">
       <c r="A44">
         <v>11010</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="H44"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" ht="101.5" spans="1:9">
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="72.5" spans="1:13">
       <c r="A45">
         <v>11011</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
-      <c r="H45"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" ht="101.5" spans="1:9">
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" ht="72.5" spans="1:13">
       <c r="A46">
         <v>11012</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
-      <c r="H46"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" ht="103.5" spans="1:9">
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" ht="74.5" spans="1:13">
       <c r="A47">
         <v>11013</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
-      <c r="H47"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" ht="103.5" spans="1:9">
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" ht="74.5" spans="1:13">
       <c r="A48">
         <v>11014</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
-      <c r="H48"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" ht="103.5" spans="1:9">
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="74.5" spans="1:13">
       <c r="A49">
         <v>11015</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
-      <c r="H49"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" ht="103.5" spans="1:9">
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="74.5" spans="1:13">
       <c r="A50">
         <v>11016</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
-      <c r="H50"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" ht="103.5" spans="1:9">
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" ht="74.5" spans="1:13">
       <c r="A51">
         <v>11017</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
-      <c r="H51"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" ht="103.5" spans="1:9">
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="74.5" spans="1:13">
       <c r="A52">
         <v>11018</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
-      <c r="H52"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" ht="120" spans="1:9">
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" ht="74.5" spans="1:13">
       <c r="A53">
         <v>11019</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
-      <c r="H53"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" ht="103.5" spans="1:9">
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" ht="74.5" spans="1:13">
       <c r="A54">
         <v>11020</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" t="s">
         <v>63</v>
       </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
-      <c r="H54"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" ht="118" spans="1:9">
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" ht="74.5" spans="1:13">
       <c r="A55">
         <v>11021</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
-      <c r="H55"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" ht="134.5" spans="1:9">
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" ht="74.5" spans="1:13">
       <c r="A56">
         <v>11022</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
-      <c r="H56"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" ht="134.5" spans="1:9">
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" ht="74.5" spans="1:13">
       <c r="A57">
         <v>11023</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
-      <c r="H57"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" ht="103.5" spans="1:9">
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" ht="74.5" spans="1:13">
       <c r="A58">
         <v>11024</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
-      <c r="H58"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" ht="134.5" spans="1:9">
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" ht="74.5" spans="1:13">
       <c r="A59">
         <v>11025</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
-      <c r="H59"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" ht="134.5" spans="1:9">
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" ht="74.5" spans="1:13">
       <c r="A60">
         <v>11026</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
-      <c r="H60"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" ht="103.5" spans="1:9">
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" ht="74.5" spans="1:13">
       <c r="A61">
         <v>11027</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
-      <c r="H61"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" ht="103.5" spans="1:9">
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" ht="74.5" spans="1:13">
       <c r="A62">
         <v>11028</v>
       </c>
       <c r="B62" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
-      <c r="H62"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" ht="103.5" spans="1:9">
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" ht="74.5" spans="1:13">
       <c r="A63">
         <v>11029</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
-      <c r="H63"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" ht="103.5" spans="1:9">
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" ht="74.5" spans="1:13">
       <c r="A64">
         <v>11030</v>
       </c>
       <c r="B64" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F64" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
-      <c r="H64"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" ht="103.5" spans="1:9">
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" ht="74.5" spans="1:13">
       <c r="A65">
         <v>11031</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
-      <c r="H65"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>10310</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
-      <c r="H66"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>19</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>12313</v>
       </c>
       <c r="B67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69">
+        <v>13332</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" t="s">
+        <v>61</v>
+      </c>
+      <c r="F69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>19</v>
+      </c>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70">
+        <v>13333</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s">
+        <v>87</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>19</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" ht="72.5" spans="1:13">
+      <c r="A71">
+        <v>13337</v>
+      </c>
+      <c r="B71" t="s">
         <v>51</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C71" t="s">
         <v>52</v>
       </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>54</v>
-      </c>
-      <c r="F67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" ht="40" customHeight="1" spans="1:11">
-      <c r="A68" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>78</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68"/>
-      <c r="I68" s="2"/>
-      <c r="J68"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" ht="43.5" spans="1:7">
-      <c r="A69" s="3">
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>19</v>
+      </c>
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" ht="72.5" spans="1:13">
+      <c r="A72">
+        <v>13338</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F72" t="s">
+        <v>87</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>19</v>
+      </c>
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" ht="72.5" spans="1:13">
+      <c r="A73">
+        <v>13339</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" t="s">
+        <v>87</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>19</v>
+      </c>
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" ht="72.5" spans="1:13">
+      <c r="A74">
+        <v>13342</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>19</v>
+      </c>
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" ht="72.5" spans="1:13">
+      <c r="A75">
+        <v>13343</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" t="s">
+        <v>87</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>19</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" ht="72.5" spans="1:13">
+      <c r="A76">
+        <v>13358</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>19</v>
+      </c>
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" ht="72.5" spans="1:13">
+      <c r="A77">
+        <v>13359</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>19</v>
+      </c>
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" ht="72.5" spans="1:13">
+      <c r="A78">
+        <v>13360</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>19</v>
+      </c>
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" ht="72.5" spans="1:13">
+      <c r="A79">
+        <v>13361</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>87</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>19</v>
+      </c>
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" ht="72.5" spans="1:13">
+      <c r="A80">
+        <v>13362</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>19</v>
+      </c>
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" ht="72.5" spans="1:13">
+      <c r="A81">
+        <v>13363</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" t="s">
+        <v>87</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>19</v>
+      </c>
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" ht="72.5" spans="1:13">
+      <c r="A82">
+        <v>13364</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F82" t="s">
+        <v>87</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s">
+        <v>19</v>
+      </c>
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" ht="72.5" spans="1:13">
+      <c r="A83">
+        <v>13365</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" t="s">
+        <v>87</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" t="s">
+        <v>19</v>
+      </c>
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" ht="72.5" spans="1:13">
+      <c r="A84">
+        <v>13366</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s">
+        <v>15</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" t="s">
+        <v>19</v>
+      </c>
+      <c r="L84" t="b">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" ht="72.5" spans="1:13">
+      <c r="A85">
+        <v>13367</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" t="s">
+        <v>87</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>19</v>
+      </c>
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" ht="72.5" spans="1:13">
+      <c r="A86">
+        <v>13368</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
+        <v>87</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>19</v>
+      </c>
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" ht="72.5" spans="1:13">
+      <c r="A87">
+        <v>13369</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" t="s">
+        <v>19</v>
+      </c>
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" ht="72.5" spans="1:13">
+      <c r="A88">
+        <v>13370</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" ht="72.5" spans="1:13">
+      <c r="A89">
+        <v>13371</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F89" t="s">
+        <v>87</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>19</v>
+      </c>
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" t="s">
+        <v>96</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>15</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>98</v>
+      </c>
+      <c r="I90" s="2">
+        <v>45594.3483267612</v>
+      </c>
+      <c r="J90" t="s">
+        <v>98</v>
+      </c>
+      <c r="K90" s="2">
+        <v>45594.3773892248</v>
+      </c>
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
+        <v>100</v>
+      </c>
+      <c r="C91" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>102</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>98</v>
+      </c>
+      <c r="I91" s="2">
+        <v>45636.2371341841</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>19</v>
+      </c>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92">
         <v>13330</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s">
+        <v>19</v>
+      </c>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" ht="72.5" spans="1:13">
+      <c r="A93">
+        <v>13334</v>
+      </c>
+      <c r="B93" t="s">
         <v>51</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C93" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="5" t="b">
-        <f t="shared" ref="G69:G110" si="0">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
+      <c r="D93" t="s">
+        <v>15</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s">
+        <v>19</v>
+      </c>
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" ht="72.5" spans="1:13">
+      <c r="A94">
+        <v>13335</v>
+      </c>
+      <c r="B94" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>103</v>
+      </c>
+      <c r="G94" t="b">
+        <v>1</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" ht="72.5" spans="1:13">
+      <c r="A95">
+        <v>13336</v>
+      </c>
+      <c r="B95" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" t="s">
+        <v>103</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" t="s">
+        <v>19</v>
+      </c>
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" ht="72.5" spans="1:13">
+      <c r="A96">
+        <v>13340</v>
+      </c>
+      <c r="B96" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" t="s">
+        <v>103</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>19</v>
+      </c>
+      <c r="L96" t="b">
+        <v>0</v>
+      </c>
+      <c r="M96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" ht="72.5" spans="1:13">
+      <c r="A97">
+        <v>13341</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F97" t="s">
+        <v>103</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" t="s">
+        <v>19</v>
+      </c>
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" ht="72.5" spans="1:13">
+      <c r="A98">
+        <v>13344</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s">
+        <v>19</v>
+      </c>
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" ht="72.5" spans="1:13">
+      <c r="A99">
+        <v>13345</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>15</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
+      </c>
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" ht="72.5" spans="1:13">
+      <c r="A100">
+        <v>13346</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>19</v>
+      </c>
+      <c r="L100" t="b">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" ht="72.5" spans="1:13">
+      <c r="A101">
+        <v>13347</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" t="s">
+        <v>103</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J101" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>19</v>
+      </c>
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" ht="72.5" spans="1:13">
+      <c r="A102">
+        <v>13348</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F102" t="s">
+        <v>103</v>
+      </c>
+      <c r="G102" t="b">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>19</v>
+      </c>
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="103" ht="72.5" spans="1:13">
+      <c r="A103">
+        <v>13349</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" t="s">
+        <v>103</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" t="s">
+        <v>19</v>
+      </c>
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" ht="72.5" spans="1:13">
+      <c r="A104">
+        <v>13350</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>103</v>
+      </c>
+      <c r="G104" t="b">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>19</v>
+      </c>
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="105" ht="72.5" spans="1:13">
+      <c r="A105">
+        <v>13351</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" t="s">
+        <v>103</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>19</v>
+      </c>
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" ht="72.5" spans="1:13">
+      <c r="A106">
+        <v>13352</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>103</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>19</v>
+      </c>
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" ht="72.5" spans="1:13">
+      <c r="A107">
+        <v>13353</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" t="s">
+        <v>103</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" t="s">
+        <v>19</v>
+      </c>
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" ht="72.5" spans="1:13">
+      <c r="A108">
+        <v>13354</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" t="s">
+        <v>103</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" t="s">
+        <v>19</v>
+      </c>
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" ht="72.5" spans="1:13">
+      <c r="A109">
+        <v>13355</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109" t="s">
+        <v>15</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F109" t="s">
+        <v>103</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>19</v>
+      </c>
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" ht="72.5" spans="1:13">
+      <c r="A110">
+        <v>13356</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F110" t="s">
+        <v>103</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>19</v>
+      </c>
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" ht="72.5" spans="1:13">
+      <c r="A111">
+        <v>13357</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F111" t="s">
+        <v>103</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" t="s">
+        <v>19</v>
+      </c>
+      <c r="L111" t="b">
+        <v>0</v>
+      </c>
+      <c r="M111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112">
         <v>13331</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G70" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" ht="43.5" spans="1:7">
-      <c r="A71" s="3">
-        <v>13332</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="3">
-        <v>13333</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="116" spans="1:7">
-      <c r="A73" s="3">
-        <v>13334</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" ht="116" spans="1:7">
-      <c r="A74" s="3">
-        <v>13335</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" ht="101.5" spans="1:7">
-      <c r="A75" s="3">
-        <v>13336</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G75" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" ht="101.5" spans="1:7">
-      <c r="A76" s="3">
-        <v>13337</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" ht="101.5" spans="1:7">
-      <c r="A77" s="3">
-        <v>13338</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" ht="101.5" spans="1:7">
-      <c r="A78" s="3">
-        <v>13339</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" ht="116" spans="1:7">
-      <c r="A79" s="3">
-        <v>13340</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" ht="130.5" spans="1:7">
-      <c r="A80" s="3">
-        <v>13341</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G80" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" ht="101.5" spans="1:7">
-      <c r="A81" s="3">
-        <v>13342</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" ht="116" spans="1:7">
-      <c r="A82" s="3">
-        <v>13343</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" ht="101.5" spans="1:7">
-      <c r="A83" s="3">
-        <v>13344</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" ht="101.5" spans="1:7">
-      <c r="A84" s="3">
-        <v>13345</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G84" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" ht="101.5" spans="1:7">
-      <c r="A85" s="3">
-        <v>13346</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" ht="101.5" spans="1:7">
-      <c r="A86" s="3">
-        <v>13347</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" ht="101.5" spans="1:7">
-      <c r="A87" s="3">
-        <v>13348</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" ht="101.5" spans="1:7">
-      <c r="A88" s="3">
-        <v>13349</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" ht="101.5" spans="1:7">
-      <c r="A89" s="3">
-        <v>13350</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" ht="101.5" spans="1:7">
-      <c r="A90" s="3">
-        <v>13351</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G90" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" ht="101.5" spans="1:7">
-      <c r="A91" s="3">
-        <v>13352</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" ht="101.5" spans="1:7">
-      <c r="A92" s="3">
-        <v>13353</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G92" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" ht="101.5" spans="1:7">
-      <c r="A93" s="3">
-        <v>13354</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G93" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" ht="101.5" spans="1:7">
-      <c r="A94" s="3">
-        <v>13355</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G94" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" ht="101.5" spans="1:7">
-      <c r="A95" s="3">
-        <v>13356</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G95" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" ht="116" spans="1:7">
-      <c r="A96" s="3">
-        <v>13357</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G96" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" ht="101.5" spans="1:7">
-      <c r="A97" s="3">
-        <v>13358</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" ht="101.5" spans="1:7">
-      <c r="A98" s="3">
-        <v>13359</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" ht="101.5" spans="1:7">
-      <c r="A99" s="3">
-        <v>13360</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" ht="101.5" spans="1:7">
-      <c r="A100" s="3">
-        <v>13361</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G100" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" ht="101.5" spans="1:7">
-      <c r="A101" s="3">
-        <v>13362</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G101" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" ht="101.5" spans="1:7">
-      <c r="A102" s="3">
-        <v>13363</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" ht="101.5" spans="1:7">
-      <c r="A103" s="3">
-        <v>13364</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" ht="101.5" spans="1:7">
-      <c r="A104" s="3">
-        <v>13365</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G104" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" ht="101.5" spans="1:7">
-      <c r="A105" s="3">
-        <v>13366</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G105" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" ht="101.5" spans="1:7">
-      <c r="A106" s="3">
-        <v>13367</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G106" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" ht="101.5" spans="1:7">
-      <c r="A107" s="3">
-        <v>13368</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G107" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" ht="101.5" spans="1:7">
-      <c r="A108" s="3">
-        <v>13369</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G108" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" ht="116" spans="1:7">
-      <c r="A109" s="3">
-        <v>13370</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G109" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" ht="116" spans="1:7">
-      <c r="A110" s="3">
-        <v>13371</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G110" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+      <c r="B112" t="s">
+        <v>59</v>
+      </c>
+      <c r="C112" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
+      </c>
+      <c r="E112" t="s">
+        <v>111</v>
+      </c>
+      <c r="F112" t="s">
+        <v>103</v>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="2">
+        <v>45526.6050307913</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" t="s">
+        <v>19</v>
+      </c>
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
